--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel05/field_36ha_100ha_10%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel05/field_36ha_100ha_10%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -3852,28 +3852,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1453.198517732914</v>
+        <v>1562.873671909997</v>
       </c>
       <c r="AB2" t="n">
-        <v>1988.330322556077</v>
+        <v>2138.392707027478</v>
       </c>
       <c r="AC2" t="n">
-        <v>1798.566867210459</v>
+        <v>1934.307508321789</v>
       </c>
       <c r="AD2" t="n">
-        <v>1453198.517732914</v>
+        <v>1562873.671909997</v>
       </c>
       <c r="AE2" t="n">
-        <v>1988330.322556077</v>
+        <v>2138392.707027478</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.378784563115786e-07</v>
+        <v>1.550294512846275e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.13657407407407</v>
       </c>
       <c r="AH2" t="n">
-        <v>1798566.867210459</v>
+        <v>1934307.508321789</v>
       </c>
     </row>
     <row r="3">
@@ -3958,28 +3958,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>857.422641904044</v>
+        <v>942.7065053452195</v>
       </c>
       <c r="AB3" t="n">
-        <v>1173.163485470392</v>
+        <v>1289.852629889122</v>
       </c>
       <c r="AC3" t="n">
-        <v>1061.19840896239</v>
+        <v>1166.75090521204</v>
       </c>
       <c r="AD3" t="n">
-        <v>857422.641904044</v>
+        <v>942706.5053452195</v>
       </c>
       <c r="AE3" t="n">
-        <v>1173163.485470392</v>
+        <v>1289852.629889122</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.178932906310788e-06</v>
+        <v>2.181334538320997e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.890625</v>
       </c>
       <c r="AH3" t="n">
-        <v>1061198.40896239</v>
+        <v>1166750.90521204</v>
       </c>
     </row>
     <row r="4">
@@ -4064,28 +4064,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>733.8620793379923</v>
+        <v>807.0356830200614</v>
       </c>
       <c r="AB4" t="n">
-        <v>1004.102472660219</v>
+        <v>1104.221825409586</v>
       </c>
       <c r="AC4" t="n">
-        <v>908.2723419361987</v>
+        <v>998.83644417756</v>
       </c>
       <c r="AD4" t="n">
-        <v>733862.0793379924</v>
+        <v>807035.6830200613</v>
       </c>
       <c r="AE4" t="n">
-        <v>1004102.472660219</v>
+        <v>1104221.825409586</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.309126004793702e-06</v>
+        <v>2.422225856946164e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.6087962962963</v>
       </c>
       <c r="AH4" t="n">
-        <v>908272.3419361986</v>
+        <v>998836.44417756</v>
       </c>
     </row>
     <row r="5">
@@ -4170,28 +4170,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>667.4808172990785</v>
+        <v>740.5690801265758</v>
       </c>
       <c r="AB5" t="n">
-        <v>913.2767014039817</v>
+        <v>1013.279287031151</v>
       </c>
       <c r="AC5" t="n">
-        <v>826.1148548138859</v>
+        <v>916.5733340233085</v>
       </c>
       <c r="AD5" t="n">
-        <v>667480.8172990785</v>
+        <v>740569.0801265759</v>
       </c>
       <c r="AE5" t="n">
-        <v>913276.7014039818</v>
+        <v>1013279.287031151</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.381653906772283e-06</v>
+        <v>2.556421464457804e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.99826388888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>826114.8548138859</v>
+        <v>916573.3340233085</v>
       </c>
     </row>
     <row r="6">
@@ -4276,28 +4276,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>634.713342501802</v>
+        <v>707.8016053292994</v>
       </c>
       <c r="AB6" t="n">
-        <v>868.4427967873854</v>
+        <v>968.4453824145546</v>
       </c>
       <c r="AC6" t="n">
-        <v>785.5598351291171</v>
+        <v>876.0183143385398</v>
       </c>
       <c r="AD6" t="n">
-        <v>634713.342501802</v>
+        <v>707801.6053292993</v>
       </c>
       <c r="AE6" t="n">
-        <v>868442.7967873854</v>
+        <v>968445.3824145546</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.42618950480113e-06</v>
+        <v>2.638823980873351e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.65393518518519</v>
       </c>
       <c r="AH6" t="n">
-        <v>785559.8351291171</v>
+        <v>876018.3143385397</v>
       </c>
     </row>
     <row r="7">
@@ -4382,28 +4382,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>610.7985965430588</v>
+        <v>671.691348265429</v>
       </c>
       <c r="AB7" t="n">
-        <v>835.7215863225023</v>
+        <v>919.0377356276589</v>
       </c>
       <c r="AC7" t="n">
-        <v>755.9614910664952</v>
+        <v>831.3260640169175</v>
       </c>
       <c r="AD7" t="n">
-        <v>610798.5965430588</v>
+        <v>671691.348265429</v>
       </c>
       <c r="AE7" t="n">
-        <v>835721.5863225022</v>
+        <v>919037.7356276589</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.457070320415472e-06</v>
+        <v>2.695961574802999e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.42824074074074</v>
       </c>
       <c r="AH7" t="n">
-        <v>755961.4910664952</v>
+        <v>831326.0640169175</v>
       </c>
     </row>
     <row r="8">
@@ -4488,28 +4488,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>591.4474649658298</v>
+        <v>652.3402166882001</v>
       </c>
       <c r="AB8" t="n">
-        <v>809.2445143868646</v>
+        <v>892.5606636920212</v>
       </c>
       <c r="AC8" t="n">
-        <v>732.0113537155906</v>
+        <v>807.3759266660131</v>
       </c>
       <c r="AD8" t="n">
-        <v>591447.4649658297</v>
+        <v>652340.2166882001</v>
       </c>
       <c r="AE8" t="n">
-        <v>809244.5143868646</v>
+        <v>892560.6636920212</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.479285601035993e-06</v>
+        <v>2.737065660231981e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.27199074074074</v>
       </c>
       <c r="AH8" t="n">
-        <v>732011.3537155907</v>
+        <v>807375.9266660131</v>
       </c>
     </row>
     <row r="9">
@@ -4594,28 +4594,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>574.2793109438486</v>
+        <v>635.1720626662189</v>
       </c>
       <c r="AB9" t="n">
-        <v>785.7542886484894</v>
+        <v>869.0704379536461</v>
       </c>
       <c r="AC9" t="n">
-        <v>710.7630021529473</v>
+        <v>786.1275751033695</v>
       </c>
       <c r="AD9" t="n">
-        <v>574279.3109438486</v>
+        <v>635172.062666219</v>
       </c>
       <c r="AE9" t="n">
-        <v>785754.2886484894</v>
+        <v>869070.4379536461</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.497667038901673e-06</v>
+        <v>2.771076132809153e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.14756944444444</v>
       </c>
       <c r="AH9" t="n">
-        <v>710763.0021529472</v>
+        <v>786127.5751033695</v>
       </c>
     </row>
     <row r="10">
@@ -4700,28 +4700,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>560.275628081904</v>
+        <v>621.1683798042743</v>
       </c>
       <c r="AB10" t="n">
-        <v>766.5938319578909</v>
+        <v>849.9099812630475</v>
       </c>
       <c r="AC10" t="n">
-        <v>693.4311925570299</v>
+        <v>768.795765507452</v>
       </c>
       <c r="AD10" t="n">
-        <v>560275.6280819039</v>
+        <v>621168.3798042743</v>
       </c>
       <c r="AE10" t="n">
-        <v>766593.8319578909</v>
+        <v>849909.9812630474</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.508170717682061e-06</v>
+        <v>2.790510688567536e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.07523148148148</v>
       </c>
       <c r="AH10" t="n">
-        <v>693431.1925570299</v>
+        <v>768795.765507452</v>
       </c>
     </row>
     <row r="11">
@@ -4806,28 +4806,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>533.5864575968861</v>
+        <v>606.5893795698119</v>
       </c>
       <c r="AB11" t="n">
-        <v>730.0765314571876</v>
+        <v>829.9623499621589</v>
       </c>
       <c r="AC11" t="n">
-        <v>660.3990519637603</v>
+        <v>750.751908141244</v>
       </c>
       <c r="AD11" t="n">
-        <v>533586.4575968861</v>
+        <v>606589.3795698119</v>
       </c>
       <c r="AE11" t="n">
-        <v>730076.5314571876</v>
+        <v>829962.3499621589</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.519987356309998e-06</v>
+        <v>2.812374563795718e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>10</v>
+        <v>9.997106481481481</v>
       </c>
       <c r="AH11" t="n">
-        <v>660399.0519637603</v>
+        <v>750751.9081412441</v>
       </c>
     </row>
     <row r="12">
@@ -4912,28 +4912,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>525.7537634974315</v>
+        <v>598.7566854703573</v>
       </c>
       <c r="AB12" t="n">
-        <v>719.359493836238</v>
+        <v>819.2453123412095</v>
       </c>
       <c r="AC12" t="n">
-        <v>650.7048333718975</v>
+        <v>741.0576895493813</v>
       </c>
       <c r="AD12" t="n">
-        <v>525753.7634974314</v>
+        <v>598756.6854703573</v>
       </c>
       <c r="AE12" t="n">
-        <v>719359.493836238</v>
+        <v>819245.3123412095</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.524924085336781e-06</v>
+        <v>2.821508805002159e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>10</v>
+        <v>9.965277777777777</v>
       </c>
       <c r="AH12" t="n">
-        <v>650704.8333718975</v>
+        <v>741057.6895493813</v>
       </c>
     </row>
     <row r="13">
@@ -5018,28 +5018,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>523.0144190520693</v>
+        <v>596.0173410249951</v>
       </c>
       <c r="AB13" t="n">
-        <v>715.6114019147458</v>
+        <v>815.4972204197173</v>
       </c>
       <c r="AC13" t="n">
-        <v>647.3144540829124</v>
+        <v>737.6673102603962</v>
       </c>
       <c r="AD13" t="n">
-        <v>523014.4190520693</v>
+        <v>596017.3410249951</v>
       </c>
       <c r="AE13" t="n">
-        <v>715611.4019147458</v>
+        <v>815497.2204197174</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.527970152183093e-06</v>
+        <v>2.82714482617209e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>10</v>
+        <v>9.945023148148147</v>
       </c>
       <c r="AH13" t="n">
-        <v>647314.4540829124</v>
+        <v>737667.3102603962</v>
       </c>
     </row>
     <row r="14">
@@ -5124,28 +5124,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>524.5164142450319</v>
+        <v>597.5193362179576</v>
       </c>
       <c r="AB14" t="n">
-        <v>717.6664980011086</v>
+        <v>817.5523165060802</v>
       </c>
       <c r="AC14" t="n">
-        <v>649.1734146831383</v>
+        <v>739.5262708606219</v>
       </c>
       <c r="AD14" t="n">
-        <v>524516.4142450319</v>
+        <v>597519.3362179577</v>
       </c>
       <c r="AE14" t="n">
-        <v>717666.4980011086</v>
+        <v>817552.3165060802</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.527655041819681e-06</v>
+        <v>2.826561789499338e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>10</v>
+        <v>9.947916666666668</v>
       </c>
       <c r="AH14" t="n">
-        <v>649173.4146831383</v>
+        <v>739526.2708606219</v>
       </c>
     </row>
   </sheetData>
@@ -5421,28 +5421,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1078.540235446646</v>
+        <v>1172.649932508383</v>
       </c>
       <c r="AB2" t="n">
-        <v>1475.706331975131</v>
+        <v>1604.471371321813</v>
       </c>
       <c r="AC2" t="n">
-        <v>1334.866990818269</v>
+        <v>1451.342875532572</v>
       </c>
       <c r="AD2" t="n">
-        <v>1078540.235446645</v>
+        <v>1172649.932508383</v>
       </c>
       <c r="AE2" t="n">
-        <v>1475706.331975131</v>
+        <v>1604471.371321813</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.931440591263474e-07</v>
+        <v>1.893085850999644e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.8275462962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>1334866.990818269</v>
+        <v>1451342.875532572</v>
       </c>
     </row>
     <row r="3">
@@ -5527,28 +5527,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>713.6030381209149</v>
+        <v>784.1000595711977</v>
       </c>
       <c r="AB3" t="n">
-        <v>976.3831587011942</v>
+        <v>1072.840293558557</v>
       </c>
       <c r="AC3" t="n">
-        <v>883.1985203971215</v>
+        <v>970.4499216821366</v>
       </c>
       <c r="AD3" t="n">
-        <v>713603.0381209149</v>
+        <v>784100.0595711977</v>
       </c>
       <c r="AE3" t="n">
-        <v>976383.1587011942</v>
+        <v>1072840.293558557</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.306136560473551e-06</v>
+        <v>2.4896978634509e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.03703703703704</v>
       </c>
       <c r="AH3" t="n">
-        <v>883198.5203971214</v>
+        <v>970449.9216821366</v>
       </c>
     </row>
     <row r="4">
@@ -5633,28 +5633,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>620.999885616492</v>
+        <v>679.8185357886292</v>
       </c>
       <c r="AB4" t="n">
-        <v>849.6794400818849</v>
+        <v>930.1577121431098</v>
       </c>
       <c r="AC4" t="n">
-        <v>768.5872268530529</v>
+        <v>841.3847655807191</v>
       </c>
       <c r="AD4" t="n">
-        <v>620999.8856164919</v>
+        <v>679818.5357886292</v>
       </c>
       <c r="AE4" t="n">
-        <v>849679.4400818849</v>
+        <v>930157.7121431099</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.424031670337018e-06</v>
+        <v>2.714424137885759e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.03877314814815</v>
       </c>
       <c r="AH4" t="n">
-        <v>768587.226853053</v>
+        <v>841384.7655807191</v>
       </c>
     </row>
     <row r="5">
@@ -5739,28 +5739,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>568.667396566643</v>
+        <v>639.1643285083748</v>
       </c>
       <c r="AB5" t="n">
-        <v>778.0758198174076</v>
+        <v>874.5328322052222</v>
       </c>
       <c r="AC5" t="n">
-        <v>703.8173556103053</v>
+        <v>791.0686461140939</v>
       </c>
       <c r="AD5" t="n">
-        <v>568667.396566643</v>
+        <v>639164.3285083747</v>
       </c>
       <c r="AE5" t="n">
-        <v>778075.8198174076</v>
+        <v>874532.8322052222</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.485098077473671e-06</v>
+        <v>2.830826134413308e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.58449074074074</v>
       </c>
       <c r="AH5" t="n">
-        <v>703817.3556103053</v>
+        <v>791068.646114094</v>
       </c>
     </row>
     <row r="6">
@@ -5845,28 +5845,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>540.1779952471628</v>
+        <v>598.9113045647284</v>
       </c>
       <c r="AB6" t="n">
-        <v>739.0953640684136</v>
+        <v>819.4568690074412</v>
       </c>
       <c r="AC6" t="n">
-        <v>668.557139848582</v>
+        <v>741.2490555443093</v>
       </c>
       <c r="AD6" t="n">
-        <v>540177.9952471628</v>
+        <v>598911.3045647284</v>
       </c>
       <c r="AE6" t="n">
-        <v>739095.3640684136</v>
+        <v>819456.8690074412</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.524812973929982e-06</v>
+        <v>2.906528856354268e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.30960648148148</v>
       </c>
       <c r="AH6" t="n">
-        <v>668557.139848582</v>
+        <v>741249.0555443093</v>
       </c>
     </row>
     <row r="7">
@@ -5951,28 +5951,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>519.0746124979854</v>
+        <v>577.8079218155509</v>
       </c>
       <c r="AB7" t="n">
-        <v>710.2207847754501</v>
+        <v>790.5822897144775</v>
       </c>
       <c r="AC7" t="n">
-        <v>642.4383098776123</v>
+        <v>715.1302255733397</v>
       </c>
       <c r="AD7" t="n">
-        <v>519074.6124979854</v>
+        <v>577807.9218155509</v>
       </c>
       <c r="AE7" t="n">
-        <v>710220.78477545</v>
+        <v>790582.2897144775</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.550782495826174e-06</v>
+        <v>2.956030773027016e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.13599537037037</v>
       </c>
       <c r="AH7" t="n">
-        <v>642438.3098776123</v>
+        <v>715130.2255733396</v>
       </c>
     </row>
     <row r="8">
@@ -6057,28 +6057,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>501.2929468783894</v>
+        <v>560.0262561959549</v>
       </c>
       <c r="AB8" t="n">
-        <v>685.891125402997</v>
+        <v>766.2526303420244</v>
       </c>
       <c r="AC8" t="n">
-        <v>620.430639048775</v>
+        <v>693.1225547445022</v>
       </c>
       <c r="AD8" t="n">
-        <v>501292.9468783895</v>
+        <v>560026.256195955</v>
       </c>
       <c r="AE8" t="n">
-        <v>685891.125402997</v>
+        <v>766252.6303420244</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.569634847495585e-06</v>
+        <v>2.991966264837567e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.01446759259259</v>
       </c>
       <c r="AH8" t="n">
-        <v>620430.639048775</v>
+        <v>693122.5547445022</v>
       </c>
     </row>
     <row r="9">
@@ -6163,28 +6163,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>477.1611547512741</v>
+        <v>547.5727458384342</v>
       </c>
       <c r="AB9" t="n">
-        <v>652.8729427951463</v>
+        <v>749.2131880607631</v>
       </c>
       <c r="AC9" t="n">
-        <v>590.563665447707</v>
+        <v>677.7093329195568</v>
       </c>
       <c r="AD9" t="n">
-        <v>477161.1547512741</v>
+        <v>547572.7458384342</v>
       </c>
       <c r="AE9" t="n">
-        <v>652872.9427951463</v>
+        <v>749213.1880607631</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.579033858558433e-06</v>
+        <v>3.009882230495277e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>10</v>
+        <v>9.956597222222221</v>
       </c>
       <c r="AH9" t="n">
-        <v>590563.6654477069</v>
+        <v>677709.3329195568</v>
       </c>
     </row>
     <row r="10">
@@ -6269,28 +6269,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>477.0883380312069</v>
+        <v>547.499929118367</v>
       </c>
       <c r="AB10" t="n">
-        <v>652.7733117463033</v>
+        <v>749.1135570119202</v>
       </c>
       <c r="AC10" t="n">
-        <v>590.4735430463327</v>
+        <v>677.6192105181824</v>
       </c>
       <c r="AD10" t="n">
-        <v>477088.3380312069</v>
+        <v>547499.929118367</v>
       </c>
       <c r="AE10" t="n">
-        <v>652773.3117463033</v>
+        <v>749113.5570119201</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.581967653919091e-06</v>
+        <v>3.015474497232365e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>10</v>
+        <v>9.936342592592593</v>
       </c>
       <c r="AH10" t="n">
-        <v>590473.5430463327</v>
+        <v>677619.2105181824</v>
       </c>
     </row>
     <row r="11">
@@ -6375,28 +6375,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>479.1541665273809</v>
+        <v>549.5657576145411</v>
       </c>
       <c r="AB11" t="n">
-        <v>655.5998694326897</v>
+        <v>751.9401146983064</v>
       </c>
       <c r="AC11" t="n">
-        <v>593.0303380342289</v>
+        <v>680.1760055060787</v>
       </c>
       <c r="AD11" t="n">
-        <v>479154.1665273809</v>
+        <v>549565.7576145411</v>
       </c>
       <c r="AE11" t="n">
-        <v>655599.8694326897</v>
+        <v>751940.1146983064</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.581478688025648e-06</v>
+        <v>3.014542452776184e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>10</v>
+        <v>9.939236111111112</v>
       </c>
       <c r="AH11" t="n">
-        <v>593030.3380342289</v>
+        <v>680176.0055060787</v>
       </c>
     </row>
   </sheetData>
@@ -6672,28 +6672,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>497.0422109230832</v>
+        <v>559.8228658702286</v>
       </c>
       <c r="AB2" t="n">
-        <v>680.0750809397121</v>
+        <v>765.9743427254176</v>
       </c>
       <c r="AC2" t="n">
-        <v>615.1696697061959</v>
+        <v>692.870826507445</v>
       </c>
       <c r="AD2" t="n">
-        <v>497042.2109230832</v>
+        <v>559822.8658702286</v>
       </c>
       <c r="AE2" t="n">
-        <v>680075.080939712</v>
+        <v>765974.3427254176</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.480798311210179e-06</v>
+        <v>3.153712873614577e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.84606481481481</v>
       </c>
       <c r="AH2" t="n">
-        <v>615169.6697061959</v>
+        <v>692870.8265074451</v>
       </c>
     </row>
     <row r="3">
@@ -6778,28 +6778,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>385.9432454315508</v>
+        <v>438.1752065414846</v>
       </c>
       <c r="AB3" t="n">
-        <v>528.0645750137591</v>
+        <v>599.5306485158645</v>
       </c>
       <c r="AC3" t="n">
-        <v>477.6668331177309</v>
+        <v>542.3122848680596</v>
       </c>
       <c r="AD3" t="n">
-        <v>385943.2454315508</v>
+        <v>438175.2065414846</v>
       </c>
       <c r="AE3" t="n">
-        <v>528064.5750137591</v>
+        <v>599530.6485158645</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.697589220932917e-06</v>
+        <v>3.615420776506811e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.33275462962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>477666.8331177309</v>
+        <v>542312.2848680596</v>
       </c>
     </row>
     <row r="4">
@@ -6884,28 +6884,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>372.3728967973827</v>
+        <v>424.6048579073164</v>
       </c>
       <c r="AB4" t="n">
-        <v>509.4970253309612</v>
+        <v>580.9630988330667</v>
       </c>
       <c r="AC4" t="n">
-        <v>460.8713443169397</v>
+        <v>525.5167960672685</v>
       </c>
       <c r="AD4" t="n">
-        <v>372372.8967973827</v>
+        <v>424604.8579073164</v>
       </c>
       <c r="AE4" t="n">
-        <v>509497.0253309612</v>
+        <v>580963.0988330668</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.72638555262148e-06</v>
+        <v>3.676749426918951e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.16203703703704</v>
       </c>
       <c r="AH4" t="n">
-        <v>460871.3443169397</v>
+        <v>525516.7960672685</v>
       </c>
     </row>
   </sheetData>
@@ -7181,28 +7181,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>678.9340504520887</v>
+        <v>744.7649162378418</v>
       </c>
       <c r="AB2" t="n">
-        <v>928.9475202849161</v>
+        <v>1019.02021510581</v>
       </c>
       <c r="AC2" t="n">
-        <v>840.2900727349563</v>
+        <v>921.7663559799653</v>
       </c>
       <c r="AD2" t="n">
-        <v>678934.0504520887</v>
+        <v>744764.9162378418</v>
       </c>
       <c r="AE2" t="n">
-        <v>928947.520284916</v>
+        <v>1019020.21510581</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.283993800242107e-06</v>
+        <v>2.60695133180236e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.07002314814815</v>
       </c>
       <c r="AH2" t="n">
-        <v>840290.0727349563</v>
+        <v>921766.3559799653</v>
       </c>
     </row>
     <row r="3">
@@ -7287,28 +7287,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>492.8751690184862</v>
+        <v>558.6206044411166</v>
       </c>
       <c r="AB3" t="n">
-        <v>674.3735503689279</v>
+        <v>764.3293555980758</v>
       </c>
       <c r="AC3" t="n">
-        <v>610.0122852109391</v>
+        <v>691.3828346427828</v>
       </c>
       <c r="AD3" t="n">
-        <v>492875.1690184862</v>
+        <v>558620.6044411166</v>
       </c>
       <c r="AE3" t="n">
-        <v>674373.5503689279</v>
+        <v>764329.3555980758</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.540630168916001e-06</v>
+        <v>3.128011887528701e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.89409722222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>610012.2852109391</v>
+        <v>691382.8346427828</v>
       </c>
     </row>
     <row r="4">
@@ -7393,28 +7393,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>440.3072835165852</v>
+        <v>495.0810124015664</v>
       </c>
       <c r="AB4" t="n">
-        <v>602.4478502937949</v>
+        <v>677.3916826006002</v>
       </c>
       <c r="AC4" t="n">
-        <v>544.9510730026227</v>
+        <v>612.7423711383958</v>
       </c>
       <c r="AD4" t="n">
-        <v>440307.2835165852</v>
+        <v>495081.0124015664</v>
       </c>
       <c r="AE4" t="n">
-        <v>602447.8502937949</v>
+        <v>677391.6826006002</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.635107150739678e-06</v>
+        <v>3.319832824314736e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.26331018518519</v>
       </c>
       <c r="AH4" t="n">
-        <v>544951.0730026227</v>
+        <v>612742.3711383959</v>
       </c>
     </row>
     <row r="5">
@@ -7499,28 +7499,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>414.2560739465734</v>
+        <v>469.0298028315544</v>
       </c>
       <c r="AB5" t="n">
-        <v>566.8034360618518</v>
+        <v>641.7472683686569</v>
       </c>
       <c r="AC5" t="n">
-        <v>512.7085116377267</v>
+        <v>580.4998097734998</v>
       </c>
       <c r="AD5" t="n">
-        <v>414256.0739465734</v>
+        <v>469029.8028315544</v>
       </c>
       <c r="AE5" t="n">
-        <v>566803.4360618518</v>
+        <v>641747.268368657</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.673849092948528e-06</v>
+        <v>3.39849236131478e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.02604166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>512708.5116377267</v>
+        <v>580499.8097734998</v>
       </c>
     </row>
     <row r="6">
@@ -7605,28 +7605,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>414.0526594765117</v>
+        <v>468.8263883614929</v>
       </c>
       <c r="AB6" t="n">
-        <v>566.5251154099004</v>
+        <v>641.4689477167058</v>
       </c>
       <c r="AC6" t="n">
-        <v>512.4567535181721</v>
+        <v>580.2480516539453</v>
       </c>
       <c r="AD6" t="n">
-        <v>414052.6594765118</v>
+        <v>468826.3883614929</v>
       </c>
       <c r="AE6" t="n">
-        <v>566525.1154099004</v>
+        <v>641468.9477167057</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.675473006693809e-06</v>
+        <v>3.401789467656099e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.01736111111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>512456.7535181722</v>
+        <v>580248.0516539452</v>
       </c>
     </row>
   </sheetData>
@@ -7902,28 +7902,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>391.9736164002165</v>
+        <v>442.206147393735</v>
       </c>
       <c r="AB2" t="n">
-        <v>536.3155946142786</v>
+        <v>605.0459596224731</v>
       </c>
       <c r="AC2" t="n">
-        <v>485.1303869879554</v>
+        <v>547.3012224234412</v>
       </c>
       <c r="AD2" t="n">
-        <v>391973.6164002165</v>
+        <v>442206.147393735</v>
       </c>
       <c r="AE2" t="n">
-        <v>536315.5946142785</v>
+        <v>605045.9596224731</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.647426258955153e-06</v>
+        <v>3.668496496738809e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.05902777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>485130.3869879554</v>
+        <v>547301.2224234412</v>
       </c>
     </row>
     <row r="3">
@@ -8008,28 +8008,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>340.2618029867746</v>
+        <v>390.4089931257215</v>
       </c>
       <c r="AB3" t="n">
-        <v>465.5612101378101</v>
+        <v>534.1748080238071</v>
       </c>
       <c r="AC3" t="n">
-        <v>421.128701661519</v>
+        <v>483.1939140650659</v>
       </c>
       <c r="AD3" t="n">
-        <v>340261.8029867747</v>
+        <v>390408.9931257215</v>
       </c>
       <c r="AE3" t="n">
-        <v>465561.2101378101</v>
+        <v>534174.8080238071</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.756100354997828e-06</v>
+        <v>3.910492481962244e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.37326388888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>421128.701661519</v>
+        <v>483193.9140650659</v>
       </c>
     </row>
   </sheetData>
@@ -8305,28 +8305,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1167.624415512072</v>
+        <v>1262.557006786786</v>
       </c>
       <c r="AB2" t="n">
-        <v>1597.595237257299</v>
+        <v>1727.486196769706</v>
       </c>
       <c r="AC2" t="n">
-        <v>1445.122990052459</v>
+        <v>1562.61733869211</v>
       </c>
       <c r="AD2" t="n">
-        <v>1167624.415512072</v>
+        <v>1262557.006786786</v>
       </c>
       <c r="AE2" t="n">
-        <v>1597595.237257299</v>
+        <v>1727486.196769706</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.514332405592955e-07</v>
+        <v>1.7989354043696e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.3744212962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>1445122.990052459</v>
+        <v>1562617.33869211</v>
       </c>
     </row>
     <row r="3">
@@ -8411,28 +8411,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>749.3843444859161</v>
+        <v>820.5624751054464</v>
       </c>
       <c r="AB3" t="n">
-        <v>1025.340720629616</v>
+        <v>1122.72977910076</v>
       </c>
       <c r="AC3" t="n">
-        <v>927.4836413274647</v>
+        <v>1015.578024744524</v>
       </c>
       <c r="AD3" t="n">
-        <v>749384.3444859161</v>
+        <v>820562.4751054464</v>
       </c>
       <c r="AE3" t="n">
-        <v>1025340.720629616</v>
+        <v>1122729.77910076</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.271413306692729e-06</v>
+        <v>2.403942088098225e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.25405092592593</v>
       </c>
       <c r="AH3" t="n">
-        <v>927483.6413274647</v>
+        <v>1015578.024744524</v>
       </c>
     </row>
     <row r="4">
@@ -8517,28 +8517,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>648.2235783147339</v>
+        <v>707.609819461244</v>
       </c>
       <c r="AB4" t="n">
-        <v>886.9280974561769</v>
+        <v>968.182972528886</v>
       </c>
       <c r="AC4" t="n">
-        <v>802.2809246463619</v>
+        <v>875.7809484840648</v>
       </c>
       <c r="AD4" t="n">
-        <v>648223.5783147339</v>
+        <v>707609.819461244</v>
       </c>
       <c r="AE4" t="n">
-        <v>886928.097456177</v>
+        <v>968182.972528886</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.394548829365985e-06</v>
+        <v>2.6367622606857e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.171875</v>
       </c>
       <c r="AH4" t="n">
-        <v>802280.9246463618</v>
+        <v>875780.9484840648</v>
       </c>
     </row>
     <row r="5">
@@ -8623,28 +8623,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>592.8901560534727</v>
+        <v>664.0681971644522</v>
       </c>
       <c r="AB5" t="n">
-        <v>811.2184679800165</v>
+        <v>908.6074039816114</v>
       </c>
       <c r="AC5" t="n">
-        <v>733.7969159482736</v>
+        <v>821.8911885841064</v>
       </c>
       <c r="AD5" t="n">
-        <v>592890.1560534727</v>
+        <v>664068.1971644522</v>
       </c>
       <c r="AE5" t="n">
-        <v>811218.4679800165</v>
+        <v>908607.4039816114</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.458674062205446e-06</v>
+        <v>2.758007921180533e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.67997685185185</v>
       </c>
       <c r="AH5" t="n">
-        <v>733796.9159482736</v>
+        <v>821891.1885841064</v>
       </c>
     </row>
     <row r="6">
@@ -8729,28 +8729,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>564.0440746597316</v>
+        <v>623.3449749516702</v>
       </c>
       <c r="AB6" t="n">
-        <v>771.7499868178044</v>
+        <v>852.8880947683155</v>
       </c>
       <c r="AC6" t="n">
-        <v>698.0952512338217</v>
+        <v>771.4896520395858</v>
       </c>
       <c r="AD6" t="n">
-        <v>564044.0746597316</v>
+        <v>623344.9749516703</v>
       </c>
       <c r="AE6" t="n">
-        <v>771749.9868178044</v>
+        <v>852888.0947683154</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.499862813777392e-06</v>
+        <v>2.835886116208699e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.38773148148148</v>
       </c>
       <c r="AH6" t="n">
-        <v>698095.2512338217</v>
+        <v>771489.6520395859</v>
       </c>
     </row>
     <row r="7">
@@ -8835,28 +8835,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>543.104821829822</v>
+        <v>602.4057221217605</v>
       </c>
       <c r="AB7" t="n">
-        <v>743.0999773212836</v>
+        <v>824.2380852717948</v>
       </c>
       <c r="AC7" t="n">
-        <v>672.1795584331081</v>
+        <v>745.5739592388722</v>
       </c>
       <c r="AD7" t="n">
-        <v>543104.8218298219</v>
+        <v>602405.7221217605</v>
       </c>
       <c r="AE7" t="n">
-        <v>743099.9773212837</v>
+        <v>824238.0852717948</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.526945090954763e-06</v>
+        <v>2.887092301959246e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.2025462962963</v>
       </c>
       <c r="AH7" t="n">
-        <v>672179.5584331081</v>
+        <v>745573.9592388723</v>
       </c>
     </row>
     <row r="8">
@@ -8941,28 +8941,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>520.8877880073991</v>
+        <v>580.1886882993377</v>
       </c>
       <c r="AB8" t="n">
-        <v>712.7016514990877</v>
+        <v>793.8397594495991</v>
       </c>
       <c r="AC8" t="n">
-        <v>644.6824061630645</v>
+        <v>718.0768069688287</v>
       </c>
       <c r="AD8" t="n">
-        <v>520887.7880073991</v>
+        <v>580188.6882993378</v>
       </c>
       <c r="AE8" t="n">
-        <v>712701.6514990877</v>
+        <v>793839.7594495991</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.548697059105177e-06</v>
+        <v>2.928220133059089e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.06076388888889</v>
       </c>
       <c r="AH8" t="n">
-        <v>644682.4061630644</v>
+        <v>718076.8069688287</v>
       </c>
     </row>
     <row r="9">
@@ -9047,28 +9047,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>494.9990658911801</v>
+        <v>566.0917661475879</v>
       </c>
       <c r="AB9" t="n">
-        <v>677.2795597698649</v>
+        <v>774.5517286492621</v>
       </c>
       <c r="AC9" t="n">
-        <v>612.6409491532604</v>
+        <v>700.6295987571546</v>
       </c>
       <c r="AD9" t="n">
-        <v>494999.0658911801</v>
+        <v>566091.7661475879</v>
       </c>
       <c r="AE9" t="n">
-        <v>677279.5597698649</v>
+        <v>774551.7286492621</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.560703714792162e-06</v>
+        <v>2.950921881413705e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>10</v>
+        <v>9.982638888888889</v>
       </c>
       <c r="AH9" t="n">
-        <v>612640.9491532604</v>
+        <v>700629.5987571545</v>
       </c>
     </row>
     <row r="10">
@@ -9153,28 +9153,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>486.5144103922389</v>
+        <v>557.6071106486468</v>
       </c>
       <c r="AB10" t="n">
-        <v>665.6704797996307</v>
+        <v>762.9426486790279</v>
       </c>
       <c r="AC10" t="n">
-        <v>602.1398234819395</v>
+        <v>690.1284730858334</v>
       </c>
       <c r="AD10" t="n">
-        <v>486514.4103922389</v>
+        <v>557607.1106486467</v>
       </c>
       <c r="AE10" t="n">
-        <v>665670.4797996307</v>
+        <v>762942.6486790279</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.566626280377671e-06</v>
+        <v>2.96212005324782e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>10</v>
+        <v>9.945023148148147</v>
       </c>
       <c r="AH10" t="n">
-        <v>602139.8234819395</v>
+        <v>690128.4730858335</v>
       </c>
     </row>
     <row r="11">
@@ -9259,28 +9259,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>487.0468809546753</v>
+        <v>558.1395812110831</v>
       </c>
       <c r="AB11" t="n">
-        <v>666.3990295140994</v>
+        <v>763.6711983934968</v>
       </c>
       <c r="AC11" t="n">
-        <v>602.7988414341852</v>
+        <v>690.7874910380793</v>
       </c>
       <c r="AD11" t="n">
-        <v>487046.8809546753</v>
+        <v>558139.5812110831</v>
       </c>
       <c r="AE11" t="n">
-        <v>666399.0295140995</v>
+        <v>763671.1983934968</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.568672257579938e-06</v>
+        <v>2.965988512608697e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>10</v>
+        <v>9.930555555555555</v>
       </c>
       <c r="AH11" t="n">
-        <v>602798.8414341852</v>
+        <v>690787.4910380794</v>
       </c>
     </row>
   </sheetData>
@@ -9556,28 +9556,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>329.5856938394232</v>
+        <v>388.2978868936442</v>
       </c>
       <c r="AB2" t="n">
-        <v>450.9536866057097</v>
+        <v>531.2862993416452</v>
       </c>
       <c r="AC2" t="n">
-        <v>407.9152996735342</v>
+        <v>480.5810805974822</v>
       </c>
       <c r="AD2" t="n">
-        <v>329585.6938394232</v>
+        <v>388297.8868936442</v>
       </c>
       <c r="AE2" t="n">
-        <v>450953.6866057097</v>
+        <v>531286.2993416452</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.738911767077628e-06</v>
+        <v>3.986571295228617e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.72337962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>407915.2996735342</v>
+        <v>480581.0805974822</v>
       </c>
     </row>
     <row r="3">
@@ -9662,28 +9662,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>323.200503163893</v>
+        <v>381.912696218114</v>
       </c>
       <c r="AB3" t="n">
-        <v>442.2171870287175</v>
+        <v>522.5497997646531</v>
       </c>
       <c r="AC3" t="n">
-        <v>400.0125993544161</v>
+        <v>472.678380278364</v>
       </c>
       <c r="AD3" t="n">
-        <v>323200.503163893</v>
+        <v>381912.696218114</v>
       </c>
       <c r="AE3" t="n">
-        <v>442217.1870287175</v>
+        <v>522549.7997646531</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.763139388688818e-06</v>
+        <v>4.042114734922023e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.57581018518519</v>
       </c>
       <c r="AH3" t="n">
-        <v>400012.5993544161</v>
+        <v>472678.3802783641</v>
       </c>
     </row>
   </sheetData>
@@ -9959,28 +9959,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>864.5566812090892</v>
+        <v>944.2384645296677</v>
       </c>
       <c r="AB2" t="n">
-        <v>1182.924592779156</v>
+        <v>1291.948724030553</v>
       </c>
       <c r="AC2" t="n">
-        <v>1070.027929889406</v>
+        <v>1168.646951070499</v>
       </c>
       <c r="AD2" t="n">
-        <v>864556.6812090892</v>
+        <v>944238.4645296676</v>
       </c>
       <c r="AE2" t="n">
-        <v>1182924.592779156</v>
+        <v>1291948.724030553</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.12719405325231e-06</v>
+        <v>2.209284766626902e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.36921296296296</v>
       </c>
       <c r="AH2" t="n">
-        <v>1070027.929889406</v>
+        <v>1168646.951070499</v>
       </c>
     </row>
     <row r="3">
@@ -10065,28 +10065,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>601.6357623646206</v>
+        <v>669.8369141639704</v>
       </c>
       <c r="AB3" t="n">
-        <v>823.1845923638488</v>
+        <v>916.5004170781847</v>
       </c>
       <c r="AC3" t="n">
-        <v>744.621010215474</v>
+        <v>829.0309035886561</v>
       </c>
       <c r="AD3" t="n">
-        <v>601635.7623646206</v>
+        <v>669836.9141639704</v>
       </c>
       <c r="AE3" t="n">
-        <v>823184.5923638488</v>
+        <v>916500.4170781847</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.415975605654786e-06</v>
+        <v>2.775292618393708e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.4380787037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>744621.0102154741</v>
+        <v>829030.9035886561</v>
       </c>
     </row>
     <row r="4">
@@ -10171,28 +10171,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>528.3912325229821</v>
+        <v>596.6776356683524</v>
       </c>
       <c r="AB4" t="n">
-        <v>722.9681953139179</v>
+        <v>816.4006646809029</v>
       </c>
       <c r="AC4" t="n">
-        <v>653.9691254453918</v>
+        <v>738.4845310692862</v>
       </c>
       <c r="AD4" t="n">
-        <v>528391.2325229822</v>
+        <v>596677.6356683525</v>
       </c>
       <c r="AE4" t="n">
-        <v>722968.1953139179</v>
+        <v>816400.6646809028</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.519251815033071e-06</v>
+        <v>2.97771256150473e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.66261574074074</v>
       </c>
       <c r="AH4" t="n">
-        <v>653969.1254453917</v>
+        <v>738484.5310692862</v>
       </c>
     </row>
     <row r="5">
@@ -10277,28 +10277,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>490.4867480231711</v>
+        <v>547.3779500104354</v>
       </c>
       <c r="AB5" t="n">
-        <v>671.1056073934401</v>
+        <v>748.9466598151097</v>
       </c>
       <c r="AC5" t="n">
-        <v>607.056230126445</v>
+        <v>677.4682417555937</v>
       </c>
       <c r="AD5" t="n">
-        <v>490486.748023171</v>
+        <v>547377.9500104354</v>
       </c>
       <c r="AE5" t="n">
-        <v>671105.6073934401</v>
+        <v>748946.6598151097</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.578530679928248e-06</v>
+        <v>3.093898317469267e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.26041666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>607056.2301264451</v>
+        <v>677468.2417555937</v>
       </c>
     </row>
     <row r="6">
@@ -10383,28 +10383,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>464.8831700815603</v>
+        <v>521.7743720688247</v>
       </c>
       <c r="AB6" t="n">
-        <v>636.0736625035892</v>
+        <v>713.9147149252587</v>
       </c>
       <c r="AC6" t="n">
-        <v>575.3676848892381</v>
+        <v>645.7796965183868</v>
       </c>
       <c r="AD6" t="n">
-        <v>464883.1700815603</v>
+        <v>521774.3720688247</v>
       </c>
       <c r="AE6" t="n">
-        <v>636073.6625035892</v>
+        <v>713914.7149252588</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.60987738846583e-06</v>
+        <v>3.155337432993479e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.06076388888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>575367.6848892381</v>
+        <v>645779.6965183868</v>
       </c>
     </row>
     <row r="7">
@@ -10489,28 +10489,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>437.945736666192</v>
+        <v>506.1467989569907</v>
       </c>
       <c r="AB7" t="n">
-        <v>599.2166777089927</v>
+        <v>692.5323799537799</v>
       </c>
       <c r="AC7" t="n">
-        <v>542.028278994335</v>
+        <v>626.4380615862904</v>
       </c>
       <c r="AD7" t="n">
-        <v>437945.736666192</v>
+        <v>506146.7989569907</v>
       </c>
       <c r="AE7" t="n">
-        <v>599216.6777089927</v>
+        <v>692532.37995378</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.624487193694954e-06</v>
+        <v>3.183972449336014e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.971064814814815</v>
       </c>
       <c r="AH7" t="n">
-        <v>542028.278994335</v>
+        <v>626438.0615862904</v>
       </c>
     </row>
     <row r="8">
@@ -10595,28 +10595,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>438.7655046982483</v>
+        <v>506.9665669890471</v>
       </c>
       <c r="AB8" t="n">
-        <v>600.3383204960653</v>
+        <v>693.6540227408525</v>
       </c>
       <c r="AC8" t="n">
-        <v>543.0428737680448</v>
+        <v>627.4526563600002</v>
       </c>
       <c r="AD8" t="n">
-        <v>438765.5046982483</v>
+        <v>506966.5669890471</v>
       </c>
       <c r="AE8" t="n">
-        <v>600338.3204960653</v>
+        <v>693654.0227408526</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.627118078161501e-06</v>
+        <v>3.189128946531796e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.953703703703704</v>
       </c>
       <c r="AH8" t="n">
-        <v>543042.8737680449</v>
+        <v>627452.6563600003</v>
       </c>
     </row>
   </sheetData>
@@ -10892,28 +10892,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1010.663228464169</v>
+        <v>1103.659654391613</v>
       </c>
       <c r="AB2" t="n">
-        <v>1382.834016499502</v>
+        <v>1510.075829166188</v>
       </c>
       <c r="AC2" t="n">
-        <v>1250.85827878452</v>
+        <v>1365.956311435304</v>
       </c>
       <c r="AD2" t="n">
-        <v>1010663.228464169</v>
+        <v>1103659.654391614</v>
       </c>
       <c r="AE2" t="n">
-        <v>1382834.016499502</v>
+        <v>1510075.829166188</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.033565102654931e-06</v>
+        <v>1.987238807534555e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.35300925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>1250858.27878452</v>
+        <v>1365956.311435304</v>
       </c>
     </row>
     <row r="3">
@@ -10998,28 +10998,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>668.0262060394451</v>
+        <v>737.9014696354726</v>
       </c>
       <c r="AB3" t="n">
-        <v>914.0229263394046</v>
+        <v>1009.629344670554</v>
       </c>
       <c r="AC3" t="n">
-        <v>826.7898610888051</v>
+        <v>913.2717370388812</v>
       </c>
       <c r="AD3" t="n">
-        <v>668026.2060394451</v>
+        <v>737901.4696354726</v>
       </c>
       <c r="AE3" t="n">
-        <v>914022.9263394047</v>
+        <v>1009629.344670555</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.341413387144299e-06</v>
+        <v>2.579139652676049e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.83159722222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>826789.8610888051</v>
+        <v>913271.7370388812</v>
       </c>
     </row>
     <row r="4">
@@ -11104,28 +11104,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>582.2498444964087</v>
+        <v>652.0397672378646</v>
       </c>
       <c r="AB4" t="n">
-        <v>796.6599242902253</v>
+        <v>892.1495754991778</v>
       </c>
       <c r="AC4" t="n">
-        <v>720.6278192351919</v>
+        <v>807.0040721533289</v>
       </c>
       <c r="AD4" t="n">
-        <v>582249.8444964087</v>
+        <v>652039.7672378646</v>
       </c>
       <c r="AE4" t="n">
-        <v>796659.9242902253</v>
+        <v>892149.5754991778</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.453901687783474e-06</v>
+        <v>2.795421254918203e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.91435185185185</v>
       </c>
       <c r="AH4" t="n">
-        <v>720627.8192351918</v>
+        <v>807004.0721533289</v>
       </c>
     </row>
     <row r="5">
@@ -11210,28 +11210,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>543.9822603826312</v>
+        <v>602.1263953666336</v>
       </c>
       <c r="AB5" t="n">
-        <v>744.3005274590944</v>
+        <v>823.8558980824034</v>
       </c>
       <c r="AC5" t="n">
-        <v>673.265529750749</v>
+        <v>745.2282474584334</v>
       </c>
       <c r="AD5" t="n">
-        <v>543982.2603826312</v>
+        <v>602126.3953666335</v>
       </c>
       <c r="AE5" t="n">
-        <v>744300.5274590944</v>
+        <v>823855.8980824035</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.513628532930262e-06</v>
+        <v>2.910258244114548e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.48321759259259</v>
       </c>
       <c r="AH5" t="n">
-        <v>673265.529750749</v>
+        <v>745228.2474584334</v>
       </c>
     </row>
     <row r="6">
@@ -11316,28 +11316,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>516.9373468511992</v>
+        <v>575.0814818352017</v>
       </c>
       <c r="AB6" t="n">
-        <v>707.2964836280116</v>
+        <v>786.8518542513207</v>
       </c>
       <c r="AC6" t="n">
-        <v>639.793099927403</v>
+        <v>711.7558176350873</v>
       </c>
       <c r="AD6" t="n">
-        <v>516937.3468511992</v>
+        <v>575081.4818352016</v>
       </c>
       <c r="AE6" t="n">
-        <v>707296.4836280117</v>
+        <v>786851.8542513207</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.5516365252964e-06</v>
+        <v>2.983336328148586e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.22858796296296</v>
       </c>
       <c r="AH6" t="n">
-        <v>639793.099927403</v>
+        <v>711755.8176350873</v>
       </c>
     </row>
     <row r="7">
@@ -11422,28 +11422,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>494.6872726610063</v>
+        <v>552.8314076450085</v>
       </c>
       <c r="AB7" t="n">
-        <v>676.8529505169945</v>
+        <v>756.4083211403034</v>
       </c>
       <c r="AC7" t="n">
-        <v>612.2550548887341</v>
+        <v>684.2177725964186</v>
       </c>
       <c r="AD7" t="n">
-        <v>494687.2726610063</v>
+        <v>552831.4076450085</v>
       </c>
       <c r="AE7" t="n">
-        <v>676852.9505169945</v>
+        <v>756408.3211403034</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.578017253042594e-06</v>
+        <v>3.03405863467149e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.05787037037037</v>
       </c>
       <c r="AH7" t="n">
-        <v>612255.0548887341</v>
+        <v>684217.7725964186</v>
       </c>
     </row>
     <row r="8">
@@ -11528,28 +11528,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>464.5504293321929</v>
+        <v>534.2550112190771</v>
       </c>
       <c r="AB8" t="n">
-        <v>635.6183919308188</v>
+        <v>730.9912760175735</v>
       </c>
       <c r="AC8" t="n">
-        <v>574.9558647009567</v>
+        <v>661.226494587155</v>
       </c>
       <c r="AD8" t="n">
-        <v>464550.4293321929</v>
+        <v>534255.0112190772</v>
       </c>
       <c r="AE8" t="n">
-        <v>635618.3919308188</v>
+        <v>730991.2760175734</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.594416083803741e-06</v>
+        <v>3.065588717104646e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.953703703703704</v>
       </c>
       <c r="AH8" t="n">
-        <v>574955.8647009567</v>
+        <v>661226.4945871551</v>
       </c>
     </row>
     <row r="9">
@@ -11634,28 +11634,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>462.5206495534948</v>
+        <v>532.2252314403789</v>
       </c>
       <c r="AB9" t="n">
-        <v>632.8411576900401</v>
+        <v>728.2140417767947</v>
       </c>
       <c r="AC9" t="n">
-        <v>572.4436857982452</v>
+        <v>658.7143156844436</v>
       </c>
       <c r="AD9" t="n">
-        <v>462520.6495534948</v>
+        <v>532225.2314403789</v>
       </c>
       <c r="AE9" t="n">
-        <v>632841.1576900401</v>
+        <v>728214.0417767947</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.596335679377789e-06</v>
+        <v>3.069279529429598e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>10</v>
+        <v>9.94212962962963</v>
       </c>
       <c r="AH9" t="n">
-        <v>572443.6857982451</v>
+        <v>658714.3156844436</v>
       </c>
     </row>
     <row r="10">
@@ -11740,28 +11740,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>464.6486755060977</v>
+        <v>534.353257392982</v>
       </c>
       <c r="AB10" t="n">
-        <v>635.7528166802706</v>
+        <v>731.1257007670254</v>
       </c>
       <c r="AC10" t="n">
-        <v>575.0774601409872</v>
+        <v>661.3480900271855</v>
       </c>
       <c r="AD10" t="n">
-        <v>464648.6755060977</v>
+        <v>534353.2573929819</v>
       </c>
       <c r="AE10" t="n">
-        <v>635752.8166802706</v>
+        <v>731125.7007670254</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.596225988202129e-06</v>
+        <v>3.069068625868172e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>10</v>
+        <v>9.94212962962963</v>
       </c>
       <c r="AH10" t="n">
-        <v>575077.4601409872</v>
+        <v>661348.0900271855</v>
       </c>
     </row>
   </sheetData>
@@ -12037,28 +12037,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1347.975620025199</v>
+        <v>1456.811318979525</v>
       </c>
       <c r="AB2" t="n">
-        <v>1844.359711805758</v>
+        <v>1993.273516607232</v>
       </c>
       <c r="AC2" t="n">
-        <v>1668.33660948613</v>
+        <v>1803.038289759189</v>
       </c>
       <c r="AD2" t="n">
-        <v>1347975.620025199</v>
+        <v>1456811.318979525</v>
       </c>
       <c r="AE2" t="n">
-        <v>1844359.711805758</v>
+        <v>1993273.516607232</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.743277707852945e-07</v>
+        <v>1.628806322337979e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.52025462962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>1668336.60948613</v>
+        <v>1803038.289759188</v>
       </c>
     </row>
     <row r="3">
@@ -12143,28 +12143,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>820.9665370925015</v>
+        <v>905.5311843135169</v>
       </c>
       <c r="AB3" t="n">
-        <v>1123.282634537405</v>
+        <v>1238.987715594132</v>
       </c>
       <c r="AC3" t="n">
-        <v>1016.078116434234</v>
+        <v>1120.740466948008</v>
       </c>
       <c r="AD3" t="n">
-        <v>820966.5370925015</v>
+        <v>905531.1843135168</v>
       </c>
       <c r="AE3" t="n">
-        <v>1123282.634537405</v>
+        <v>1238987.715594132</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.20847386482724e-06</v>
+        <v>2.251295151751719e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.67650462962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>1016078.116434234</v>
+        <v>1120740.466948008</v>
       </c>
     </row>
     <row r="4">
@@ -12249,28 +12249,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>705.5400102708118</v>
+        <v>777.9265507064368</v>
       </c>
       <c r="AB4" t="n">
-        <v>965.3509682809995</v>
+        <v>1064.393426373802</v>
       </c>
       <c r="AC4" t="n">
-        <v>873.2192267468537</v>
+        <v>962.8092116462419</v>
       </c>
       <c r="AD4" t="n">
-        <v>705540.0102708117</v>
+        <v>777926.5507064369</v>
       </c>
       <c r="AE4" t="n">
-        <v>965350.9682809995</v>
+        <v>1064393.426373802</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.336054993889517e-06</v>
+        <v>2.488969118622301e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.46412037037037</v>
       </c>
       <c r="AH4" t="n">
-        <v>873219.2267468537</v>
+        <v>962809.211646242</v>
       </c>
     </row>
     <row r="5">
@@ -12355,28 +12355,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>643.0258776249915</v>
+        <v>715.497669406637</v>
       </c>
       <c r="AB5" t="n">
-        <v>879.8163740661009</v>
+        <v>978.9754768115527</v>
       </c>
       <c r="AC5" t="n">
-        <v>795.8479341552679</v>
+        <v>885.5434313053687</v>
       </c>
       <c r="AD5" t="n">
-        <v>643025.8776249915</v>
+        <v>715497.669406637</v>
       </c>
       <c r="AE5" t="n">
-        <v>879816.3740661009</v>
+        <v>978975.4768115527</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.405721701709416e-06</v>
+        <v>2.618752911320096e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.89699074074074</v>
       </c>
       <c r="AH5" t="n">
-        <v>795847.9341552679</v>
+        <v>885543.4313053687</v>
       </c>
     </row>
     <row r="6">
@@ -12461,28 +12461,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>610.9750309574888</v>
+        <v>683.4468227391343</v>
       </c>
       <c r="AB6" t="n">
-        <v>835.9629916720626</v>
+        <v>935.1220944175143</v>
       </c>
       <c r="AC6" t="n">
-        <v>756.179857028308</v>
+        <v>845.8753541784087</v>
       </c>
       <c r="AD6" t="n">
-        <v>610975.0309574888</v>
+        <v>683446.8227391343</v>
       </c>
       <c r="AE6" t="n">
-        <v>835962.9916720625</v>
+        <v>935122.0944175143</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.450507442450779e-06</v>
+        <v>2.702185349482964e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.56134259259259</v>
       </c>
       <c r="AH6" t="n">
-        <v>756179.857028308</v>
+        <v>845875.3541784086</v>
       </c>
     </row>
     <row r="7">
@@ -12567,28 +12567,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>587.9086169013963</v>
+        <v>648.2876427522234</v>
       </c>
       <c r="AB7" t="n">
-        <v>804.4025063421486</v>
+        <v>887.0157532458738</v>
       </c>
       <c r="AC7" t="n">
-        <v>727.6314601228615</v>
+        <v>802.3602146905156</v>
       </c>
       <c r="AD7" t="n">
-        <v>587908.6169013963</v>
+        <v>648287.6427522234</v>
       </c>
       <c r="AE7" t="n">
-        <v>804402.5063421486</v>
+        <v>887015.7532458738</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.478670579654568e-06</v>
+        <v>2.75465113802037e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.3587962962963</v>
       </c>
       <c r="AH7" t="n">
-        <v>727631.4601228616</v>
+        <v>802360.2146905155</v>
       </c>
     </row>
     <row r="8">
@@ -12673,28 +12673,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>567.7390414665252</v>
+        <v>628.1180673173525</v>
       </c>
       <c r="AB8" t="n">
-        <v>776.8056034132901</v>
+        <v>859.4188503170153</v>
       </c>
       <c r="AC8" t="n">
-        <v>702.6683668770369</v>
+        <v>777.3971214446908</v>
       </c>
       <c r="AD8" t="n">
-        <v>567739.0414665253</v>
+        <v>628118.0673173525</v>
       </c>
       <c r="AE8" t="n">
-        <v>776805.6034132901</v>
+        <v>859418.8503170153</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.502386905720916e-06</v>
+        <v>2.798832854683449e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.19675925925926</v>
       </c>
       <c r="AH8" t="n">
-        <v>702668.3668770369</v>
+        <v>777397.1214446909</v>
       </c>
     </row>
     <row r="9">
@@ -12779,28 +12779,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>554.1174108920605</v>
+        <v>614.4964367428876</v>
       </c>
       <c r="AB9" t="n">
-        <v>758.1678875173789</v>
+        <v>840.7811344211041</v>
       </c>
       <c r="AC9" t="n">
-        <v>685.8094084280328</v>
+        <v>760.5381629956869</v>
       </c>
       <c r="AD9" t="n">
-        <v>554117.4108920605</v>
+        <v>614496.4367428876</v>
       </c>
       <c r="AE9" t="n">
-        <v>758167.8875173789</v>
+        <v>840781.1344211041</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.515992030272371e-06</v>
+        <v>2.824178169822761e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.10416666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>685809.4084280329</v>
+        <v>760538.1629956869</v>
       </c>
     </row>
     <row r="10">
@@ -12885,28 +12885,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>538.7261788552054</v>
+        <v>599.1052047060326</v>
       </c>
       <c r="AB10" t="n">
-        <v>737.1089248313189</v>
+        <v>819.7221717350441</v>
       </c>
       <c r="AC10" t="n">
-        <v>666.7602835842906</v>
+        <v>741.4890381519447</v>
       </c>
       <c r="AD10" t="n">
-        <v>538726.1788552054</v>
+        <v>599105.2047060326</v>
       </c>
       <c r="AE10" t="n">
-        <v>737108.9248313189</v>
+        <v>819722.1717350441</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.529597154823825e-06</v>
+        <v>2.849523484962072e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.01446759259259</v>
       </c>
       <c r="AH10" t="n">
-        <v>666760.2835842906</v>
+        <v>741489.0381519446</v>
       </c>
     </row>
     <row r="11">
@@ -12991,28 +12991,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>514.3756187965929</v>
+        <v>586.7620697236669</v>
       </c>
       <c r="AB11" t="n">
-        <v>703.7914142882335</v>
+        <v>802.8337499114875</v>
       </c>
       <c r="AC11" t="n">
-        <v>636.6225494860176</v>
+        <v>726.2124236041794</v>
       </c>
       <c r="AD11" t="n">
-        <v>514375.6187965929</v>
+        <v>586762.0697236669</v>
       </c>
       <c r="AE11" t="n">
-        <v>703791.4142882335</v>
+        <v>802833.7499114876</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.538173147731746e-06</v>
+        <v>2.865499909291131e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>10</v>
+        <v>9.959490740740742</v>
       </c>
       <c r="AH11" t="n">
-        <v>636622.5494860177</v>
+        <v>726212.4236041794</v>
       </c>
     </row>
     <row r="12">
@@ -13097,28 +13097,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>511.9961087890289</v>
+        <v>584.3825597161029</v>
       </c>
       <c r="AB12" t="n">
-        <v>700.535663719312</v>
+        <v>799.5779993425662</v>
       </c>
       <c r="AC12" t="n">
-        <v>633.6775231819192</v>
+        <v>723.2673973000811</v>
       </c>
       <c r="AD12" t="n">
-        <v>511996.1087890289</v>
+        <v>584382.5597161029</v>
       </c>
       <c r="AE12" t="n">
-        <v>700535.6637193119</v>
+        <v>799577.9993425661</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.541508256084826e-06</v>
+        <v>2.871712963196877e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>10</v>
+        <v>9.936342592592593</v>
       </c>
       <c r="AH12" t="n">
-        <v>633677.5231819192</v>
+        <v>723267.3973000811</v>
       </c>
     </row>
     <row r="13">
@@ -13203,28 +13203,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>511.3517113839796</v>
+        <v>583.7381623110538</v>
       </c>
       <c r="AB13" t="n">
-        <v>699.6539707609163</v>
+        <v>798.6963063841706</v>
       </c>
       <c r="AC13" t="n">
-        <v>632.8799777620093</v>
+        <v>722.4698518801711</v>
       </c>
       <c r="AD13" t="n">
-        <v>511351.7113839797</v>
+        <v>583738.1623110537</v>
       </c>
       <c r="AE13" t="n">
-        <v>699653.9707609164</v>
+        <v>798696.3063841707</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.54129650317352e-06</v>
+        <v>2.871318483583814e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>10</v>
+        <v>9.939236111111112</v>
       </c>
       <c r="AH13" t="n">
-        <v>632879.9777620093</v>
+        <v>722469.8518801711</v>
       </c>
     </row>
   </sheetData>
@@ -13500,28 +13500,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>733.4375479805014</v>
+        <v>811.1103402036726</v>
       </c>
       <c r="AB2" t="n">
-        <v>1003.521610127899</v>
+        <v>1109.796951129391</v>
       </c>
       <c r="AC2" t="n">
-        <v>907.7469161087168</v>
+        <v>1003.879487723405</v>
       </c>
       <c r="AD2" t="n">
-        <v>733437.5479805014</v>
+        <v>811110.3402036726</v>
       </c>
       <c r="AE2" t="n">
-        <v>1003521.610127899</v>
+        <v>1109796.951129391</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.229667030206582e-06</v>
+        <v>2.464864309535973e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.47800925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>907746.9161087169</v>
+        <v>1003879.487723405</v>
       </c>
     </row>
     <row r="3">
@@ -13606,28 +13606,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>536.6192029140494</v>
+        <v>592.2217098681457</v>
       </c>
       <c r="AB3" t="n">
-        <v>734.2260673954108</v>
+        <v>810.3038704194875</v>
       </c>
       <c r="AC3" t="n">
-        <v>664.1525620159499</v>
+        <v>732.9696062952758</v>
       </c>
       <c r="AD3" t="n">
-        <v>536619.2029140494</v>
+        <v>592221.7098681456</v>
       </c>
       <c r="AE3" t="n">
-        <v>734226.0673954108</v>
+        <v>810303.8704194875</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.496263836392211e-06</v>
+        <v>2.999256902377012e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.07638888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>664152.5620159499</v>
+        <v>732969.6062952757</v>
       </c>
     </row>
     <row r="4">
@@ -13712,28 +13712,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>470.8449211079405</v>
+        <v>526.3620872074652</v>
       </c>
       <c r="AB4" t="n">
-        <v>644.2307932717752</v>
+        <v>720.1918291736541</v>
       </c>
       <c r="AC4" t="n">
-        <v>582.7463105455134</v>
+        <v>651.4577317929005</v>
       </c>
       <c r="AD4" t="n">
-        <v>470844.9211079405</v>
+        <v>526362.0872074652</v>
       </c>
       <c r="AE4" t="n">
-        <v>644230.7932717751</v>
+        <v>720191.8291736541</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.593567375320113e-06</v>
+        <v>3.194301588786664e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.39930555555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>582746.3105455134</v>
+        <v>651457.7317929005</v>
       </c>
     </row>
     <row r="5">
@@ -13818,28 +13818,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>437.7764905747409</v>
+        <v>493.2936566742655</v>
       </c>
       <c r="AB5" t="n">
-        <v>598.9851077400588</v>
+        <v>674.9461436419377</v>
       </c>
       <c r="AC5" t="n">
-        <v>541.8188097382256</v>
+        <v>610.5302309856127</v>
       </c>
       <c r="AD5" t="n">
-        <v>437776.4905747409</v>
+        <v>493293.6566742655</v>
       </c>
       <c r="AE5" t="n">
-        <v>598985.1077400588</v>
+        <v>674946.1436419378</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.642992304157535e-06</v>
+        <v>3.293373727910577e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.08680555555556</v>
       </c>
       <c r="AH5" t="n">
-        <v>541818.8097382255</v>
+        <v>610530.2309856126</v>
       </c>
     </row>
     <row r="6">
@@ -13924,28 +13924,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>414.8609049615115</v>
+        <v>481.4131241870225</v>
       </c>
       <c r="AB6" t="n">
-        <v>567.6309925397513</v>
+        <v>658.6906749607897</v>
       </c>
       <c r="AC6" t="n">
-        <v>513.4570872868583</v>
+        <v>595.8261614206999</v>
       </c>
       <c r="AD6" t="n">
-        <v>414860.9049615115</v>
+        <v>481413.1241870225</v>
       </c>
       <c r="AE6" t="n">
-        <v>567630.9925397513</v>
+        <v>658690.6749607897</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.659715455050382e-06</v>
+        <v>3.326895239641959e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.985532407407407</v>
       </c>
       <c r="AH6" t="n">
-        <v>513457.0872868582</v>
+        <v>595826.1614206999</v>
       </c>
     </row>
     <row r="7">
@@ -14030,28 +14030,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>416.4446314905888</v>
+        <v>482.9968507160999</v>
       </c>
       <c r="AB7" t="n">
-        <v>569.7979170459183</v>
+        <v>660.8575994669567</v>
       </c>
       <c r="AC7" t="n">
-        <v>515.4172035594543</v>
+        <v>597.7862776932958</v>
       </c>
       <c r="AD7" t="n">
-        <v>416444.6314905888</v>
+        <v>482996.8507160998</v>
       </c>
       <c r="AE7" t="n">
-        <v>569797.9170459183</v>
+        <v>660857.5994669567</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.65851276269165e-06</v>
+        <v>3.324484445990045e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.991319444444445</v>
       </c>
       <c r="AH7" t="n">
-        <v>515417.2035594543</v>
+        <v>597786.2776932959</v>
       </c>
     </row>
   </sheetData>
@@ -14327,28 +14327,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>559.971330238925</v>
+        <v>623.7575729341368</v>
       </c>
       <c r="AB2" t="n">
-        <v>766.1774782244537</v>
+        <v>853.4526295304646</v>
       </c>
       <c r="AC2" t="n">
-        <v>693.0545750395557</v>
+        <v>772.0003083963647</v>
       </c>
       <c r="AD2" t="n">
-        <v>559971.3302389251</v>
+        <v>623757.5729341367</v>
       </c>
       <c r="AE2" t="n">
-        <v>766177.4782244537</v>
+        <v>853452.6295304646</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.410063837734065e-06</v>
+        <v>2.949941730994824e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.24247685185185</v>
       </c>
       <c r="AH2" t="n">
-        <v>693054.5750395558</v>
+        <v>772000.3083963648</v>
       </c>
     </row>
     <row r="3">
@@ -14433,28 +14433,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>423.4876559724645</v>
+        <v>476.7992418613962</v>
       </c>
       <c r="AB3" t="n">
-        <v>579.4344938583314</v>
+        <v>652.3777576127457</v>
       </c>
       <c r="AC3" t="n">
-        <v>524.1340790059113</v>
+        <v>590.115740044118</v>
       </c>
       <c r="AD3" t="n">
-        <v>423487.6559724645</v>
+        <v>476799.2418613962</v>
       </c>
       <c r="AE3" t="n">
-        <v>579434.4938583313</v>
+        <v>652377.7576127456</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.640103021957392e-06</v>
+        <v>3.431198090561419e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.52372685185185</v>
       </c>
       <c r="AH3" t="n">
-        <v>524134.0790059112</v>
+        <v>590115.7400441179</v>
       </c>
     </row>
     <row r="4">
@@ -14539,28 +14539,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>387.429517999062</v>
+        <v>440.5705116874017</v>
       </c>
       <c r="AB4" t="n">
-        <v>530.0981587103458</v>
+        <v>602.8080106899133</v>
       </c>
       <c r="AC4" t="n">
-        <v>479.5063344404682</v>
+        <v>545.2768601960238</v>
       </c>
       <c r="AD4" t="n">
-        <v>387429.517999062</v>
+        <v>440570.5116874017</v>
       </c>
       <c r="AE4" t="n">
-        <v>530098.1587103459</v>
+        <v>602808.0106899133</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.707933559421584e-06</v>
+        <v>3.573103816917025e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.10706018518519</v>
       </c>
       <c r="AH4" t="n">
-        <v>479506.3344404682</v>
+        <v>545276.8601960238</v>
       </c>
     </row>
     <row r="5">
@@ -14645,28 +14645,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>387.2017782096203</v>
+        <v>440.34277189796</v>
       </c>
       <c r="AB5" t="n">
-        <v>529.7865550832614</v>
+        <v>602.4964070628288</v>
       </c>
       <c r="AC5" t="n">
-        <v>479.2244698262143</v>
+        <v>544.9949955817699</v>
       </c>
       <c r="AD5" t="n">
-        <v>387201.7782096203</v>
+        <v>440342.77189796</v>
       </c>
       <c r="AE5" t="n">
-        <v>529786.5550832615</v>
+        <v>602496.4070628288</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.711751637168029e-06</v>
+        <v>3.581091474337218e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.08391203703704</v>
       </c>
       <c r="AH5" t="n">
-        <v>479224.4698262142</v>
+        <v>544994.9955817699</v>
       </c>
     </row>
   </sheetData>
@@ -26595,28 +26595,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>446.3105507423277</v>
+        <v>507.7322697590994</v>
       </c>
       <c r="AB2" t="n">
-        <v>610.661785357514</v>
+        <v>694.7016910512606</v>
       </c>
       <c r="AC2" t="n">
-        <v>552.3810816321908</v>
+        <v>628.4003366772747</v>
       </c>
       <c r="AD2" t="n">
-        <v>446310.5507423278</v>
+        <v>507732.2697590995</v>
       </c>
       <c r="AE2" t="n">
-        <v>610661.7853575139</v>
+        <v>694701.6910512606</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.556584492792007e-06</v>
+        <v>3.383790180925561e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.47280092592593</v>
       </c>
       <c r="AH2" t="n">
-        <v>552381.0816321907</v>
+        <v>628400.3366772747</v>
       </c>
     </row>
     <row r="3">
@@ -26701,28 +26701,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>358.820752611839</v>
+        <v>410.0624272802884</v>
       </c>
       <c r="AB3" t="n">
-        <v>490.9543837778951</v>
+        <v>561.0655036824071</v>
       </c>
       <c r="AC3" t="n">
-        <v>444.0983864489374</v>
+        <v>507.5181994713376</v>
       </c>
       <c r="AD3" t="n">
-        <v>358820.752611839</v>
+        <v>410062.4272802884</v>
       </c>
       <c r="AE3" t="n">
-        <v>490954.3837778951</v>
+        <v>561065.5036824071</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.738575836773438e-06</v>
+        <v>3.779413114103592e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.27199074074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>444098.3864489374</v>
+        <v>507518.1994713376</v>
       </c>
     </row>
     <row r="4">
@@ -26807,28 +26807,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>358.08421947844</v>
+        <v>409.3258941468893</v>
       </c>
       <c r="AB4" t="n">
-        <v>489.94662665123</v>
+        <v>560.0577465557421</v>
       </c>
       <c r="AC4" t="n">
-        <v>443.1868082480453</v>
+        <v>506.6066212704454</v>
       </c>
       <c r="AD4" t="n">
-        <v>358084.21947844</v>
+        <v>409325.8941468893</v>
       </c>
       <c r="AE4" t="n">
-        <v>489946.62665123</v>
+        <v>560057.7465557421</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.74431513653277e-06</v>
+        <v>3.791889524000356e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.23726851851852</v>
       </c>
       <c r="AH4" t="n">
-        <v>443186.8082480453</v>
+        <v>506606.6212704454</v>
       </c>
     </row>
   </sheetData>
@@ -27104,28 +27104,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>300.8729498015417</v>
+        <v>357.8618729932135</v>
       </c>
       <c r="AB2" t="n">
-        <v>411.6676434962135</v>
+        <v>489.6424023809086</v>
       </c>
       <c r="AC2" t="n">
-        <v>372.3786613801007</v>
+        <v>442.9116187151018</v>
       </c>
       <c r="AD2" t="n">
-        <v>300872.9498015417</v>
+        <v>357861.8729932135</v>
       </c>
       <c r="AE2" t="n">
-        <v>411667.6434962135</v>
+        <v>489642.4023809086</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.75196251386387e-06</v>
+        <v>4.16709007830687e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.94039351851852</v>
       </c>
       <c r="AH2" t="n">
-        <v>372378.6613801006</v>
+        <v>442911.6187151019</v>
       </c>
     </row>
   </sheetData>
@@ -27401,28 +27401,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>928.2172264222147</v>
+        <v>1020.317935976872</v>
       </c>
       <c r="AB2" t="n">
-        <v>1270.027759244795</v>
+        <v>1396.044013254016</v>
       </c>
       <c r="AC2" t="n">
-        <v>1148.818092397626</v>
+        <v>1262.80753198913</v>
       </c>
       <c r="AD2" t="n">
-        <v>928217.2264222148</v>
+        <v>1020317.935976872</v>
       </c>
       <c r="AE2" t="n">
-        <v>1270027.759244795</v>
+        <v>1396044.013254016</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.080497897486717e-06</v>
+        <v>2.096790659593501e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.83506944444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>1148818.092397626</v>
+        <v>1262807.53198913</v>
       </c>
     </row>
     <row r="3">
@@ -27507,28 +27507,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>633.172159400051</v>
+        <v>702.3116972069724</v>
       </c>
       <c r="AB3" t="n">
-        <v>866.3340820753698</v>
+        <v>960.9338479239337</v>
       </c>
       <c r="AC3" t="n">
-        <v>783.6523731896165</v>
+        <v>869.2236701571991</v>
       </c>
       <c r="AD3" t="n">
-        <v>633172.159400051</v>
+        <v>702311.6972069724</v>
       </c>
       <c r="AE3" t="n">
-        <v>866334.0820753698</v>
+        <v>960933.8479239338</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.379288303466587e-06</v>
+        <v>2.67661680630976e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.62037037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>783652.3731896165</v>
+        <v>869223.670157199</v>
       </c>
     </row>
     <row r="4">
@@ -27613,28 +27613,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>554.6318765009389</v>
+        <v>623.6860734532887</v>
       </c>
       <c r="AB4" t="n">
-        <v>758.8718020600675</v>
+        <v>853.3548007864337</v>
       </c>
       <c r="AC4" t="n">
-        <v>686.4461423547173</v>
+        <v>771.9118162903609</v>
       </c>
       <c r="AD4" t="n">
-        <v>554631.8765009389</v>
+        <v>623686.0734532888</v>
       </c>
       <c r="AE4" t="n">
-        <v>758871.8020600674</v>
+        <v>853354.8007864336</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.487471036666195e-06</v>
+        <v>2.886553859431164e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.77546296296296</v>
       </c>
       <c r="AH4" t="n">
-        <v>686446.1423547172</v>
+        <v>771911.8162903609</v>
       </c>
     </row>
     <row r="5">
@@ -27719,28 +27719,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>517.9653220922605</v>
+        <v>575.4963522520077</v>
       </c>
       <c r="AB5" t="n">
-        <v>708.7030047038985</v>
+        <v>787.4194982583859</v>
       </c>
       <c r="AC5" t="n">
-        <v>641.0653846058718</v>
+        <v>712.2692864948116</v>
       </c>
       <c r="AD5" t="n">
-        <v>517965.3220922605</v>
+        <v>575496.3522520077</v>
       </c>
       <c r="AE5" t="n">
-        <v>708703.0047038984</v>
+        <v>787419.4982583859</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.54458132746435e-06</v>
+        <v>2.997380844463508e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.37615740740741</v>
       </c>
       <c r="AH5" t="n">
-        <v>641065.3846058719</v>
+        <v>712269.2864948115</v>
       </c>
     </row>
     <row r="6">
@@ -27825,28 +27825,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>490.7724741318307</v>
+        <v>548.3035042915781</v>
       </c>
       <c r="AB6" t="n">
-        <v>671.4965504606546</v>
+        <v>750.2130440151421</v>
       </c>
       <c r="AC6" t="n">
-        <v>607.4098621360167</v>
+        <v>678.6137640249564</v>
       </c>
       <c r="AD6" t="n">
-        <v>490772.4741318307</v>
+        <v>548303.5042915781</v>
       </c>
       <c r="AE6" t="n">
-        <v>671496.5504606545</v>
+        <v>750213.0440151421</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.581528528203796e-06</v>
+        <v>3.069079776584336e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.13599537037037</v>
       </c>
       <c r="AH6" t="n">
-        <v>607409.8621360167</v>
+        <v>678613.7640249564</v>
       </c>
     </row>
     <row r="7">
@@ -27931,28 +27931,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>457.0103162539959</v>
+        <v>525.9791723517742</v>
       </c>
       <c r="AB7" t="n">
-        <v>625.3016765709177</v>
+        <v>719.6679081750865</v>
       </c>
       <c r="AC7" t="n">
-        <v>565.6237621754036</v>
+        <v>650.9838130791085</v>
       </c>
       <c r="AD7" t="n">
-        <v>457010.3162539959</v>
+        <v>525979.1723517742</v>
       </c>
       <c r="AE7" t="n">
-        <v>625301.6765709177</v>
+        <v>719667.9081750865</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.603574983817439e-06</v>
+        <v>3.111862647624949e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.994212962962964</v>
       </c>
       <c r="AH7" t="n">
-        <v>565623.7621754037</v>
+        <v>650983.8130791085</v>
       </c>
     </row>
     <row r="8">
@@ -28037,28 +28037,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>452.5722554369057</v>
+        <v>521.5411115346839</v>
       </c>
       <c r="AB8" t="n">
-        <v>619.2293259675499</v>
+        <v>713.5955575717187</v>
       </c>
       <c r="AC8" t="n">
-        <v>560.1309481910238</v>
+        <v>645.4909990947284</v>
       </c>
       <c r="AD8" t="n">
-        <v>452572.2554369057</v>
+        <v>521541.1115346838</v>
       </c>
       <c r="AE8" t="n">
-        <v>619229.3259675499</v>
+        <v>713595.5575717187</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.610554514991607e-06</v>
+        <v>3.125406973632782e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.950810185185185</v>
       </c>
       <c r="AH8" t="n">
-        <v>560130.9481910238</v>
+        <v>645490.9990947284</v>
       </c>
     </row>
     <row r="9">
@@ -28143,28 +28143,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>453.599207157586</v>
+        <v>522.5680632553642</v>
       </c>
       <c r="AB9" t="n">
-        <v>620.6344466176972</v>
+        <v>715.0006782218659</v>
       </c>
       <c r="AC9" t="n">
-        <v>561.4019660984201</v>
+        <v>646.7620170021248</v>
       </c>
       <c r="AD9" t="n">
-        <v>453599.2071575859</v>
+        <v>522568.0632553642</v>
       </c>
       <c r="AE9" t="n">
-        <v>620634.4466176972</v>
+        <v>715000.6782218659</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.609668225318697e-06</v>
+        <v>3.123687059219088e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>10</v>
+        <v>9.956597222222221</v>
       </c>
       <c r="AH9" t="n">
-        <v>561401.9660984201</v>
+        <v>646762.0170021248</v>
       </c>
     </row>
   </sheetData>
@@ -28440,28 +28440,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1249.315483357231</v>
+        <v>1357.11161883978</v>
       </c>
       <c r="AB2" t="n">
-        <v>1709.368560238604</v>
+        <v>1856.859988435689</v>
       </c>
       <c r="AC2" t="n">
-        <v>1546.228823963273</v>
+        <v>1679.643877258748</v>
       </c>
       <c r="AD2" t="n">
-        <v>1249315.483357231</v>
+        <v>1357111.61883978</v>
       </c>
       <c r="AE2" t="n">
-        <v>1709368.560238604</v>
+        <v>1856859.988435689</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.119192891891546e-07</v>
+        <v>1.711118267932504e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.93865740740741</v>
       </c>
       <c r="AH2" t="n">
-        <v>1546228.823963273</v>
+        <v>1679643.877258748</v>
       </c>
     </row>
     <row r="3">
@@ -28546,28 +28546,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>784.6966053205924</v>
+        <v>856.5323381993185</v>
       </c>
       <c r="AB3" t="n">
-        <v>1073.65651377062</v>
+        <v>1171.945332664159</v>
       </c>
       <c r="AC3" t="n">
-        <v>971.1882429827324</v>
+        <v>1060.096514950296</v>
       </c>
       <c r="AD3" t="n">
-        <v>784696.6053205924</v>
+        <v>856532.3381993185</v>
       </c>
       <c r="AE3" t="n">
-        <v>1073656.51377062</v>
+        <v>1171945.332664159</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.239770393977248e-06</v>
+        <v>2.326295533306038e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.45949074074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>971188.2429827324</v>
+        <v>1060096.514950296</v>
       </c>
     </row>
     <row r="4">
@@ -28652,28 +28652,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>674.9796053306691</v>
+        <v>746.7299973548238</v>
       </c>
       <c r="AB4" t="n">
-        <v>923.5368740119839</v>
+        <v>1021.708925783325</v>
       </c>
       <c r="AC4" t="n">
-        <v>835.3958109484229</v>
+        <v>924.1984598840475</v>
       </c>
       <c r="AD4" t="n">
-        <v>674979.6053306691</v>
+        <v>746729.9973548239</v>
       </c>
       <c r="AE4" t="n">
-        <v>923536.8740119839</v>
+        <v>1021708.925783325</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.367131633968194e-06</v>
+        <v>2.565275174331966e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.2962962962963</v>
       </c>
       <c r="AH4" t="n">
-        <v>835395.8109484229</v>
+        <v>924198.4598840475</v>
       </c>
     </row>
     <row r="5">
@@ -28758,28 +28758,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>618.1630387705773</v>
+        <v>689.9986821407524</v>
       </c>
       <c r="AB5" t="n">
-        <v>845.7979410744542</v>
+        <v>944.0866374984449</v>
       </c>
       <c r="AC5" t="n">
-        <v>765.0761726631737</v>
+        <v>853.9843338495104</v>
       </c>
       <c r="AD5" t="n">
-        <v>618163.0387705773</v>
+        <v>689998.6821407524</v>
       </c>
       <c r="AE5" t="n">
-        <v>845797.9410744542</v>
+        <v>944086.6374984449</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.432200096478238e-06</v>
+        <v>2.687369131754685e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.78414351851852</v>
       </c>
       <c r="AH5" t="n">
-        <v>765076.1726631736</v>
+        <v>853984.3338495104</v>
       </c>
     </row>
     <row r="6">
@@ -28864,28 +28864,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>588.5937030106462</v>
+        <v>648.442605185248</v>
       </c>
       <c r="AB6" t="n">
-        <v>805.3398713806903</v>
+        <v>887.227779683198</v>
       </c>
       <c r="AC6" t="n">
-        <v>728.4793643577249</v>
+        <v>802.5520056222424</v>
       </c>
       <c r="AD6" t="n">
-        <v>588593.7030106462</v>
+        <v>648442.605185248</v>
       </c>
       <c r="AE6" t="n">
-        <v>805339.8713806903</v>
+        <v>887227.7796831981</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.473781993357092e-06</v>
+        <v>2.765393079935405e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.48032407407407</v>
       </c>
       <c r="AH6" t="n">
-        <v>728479.3643577249</v>
+        <v>802552.0056222425</v>
       </c>
     </row>
     <row r="7">
@@ -28970,28 +28970,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>564.6146257713291</v>
+        <v>624.4635279459308</v>
       </c>
       <c r="AB7" t="n">
-        <v>772.5306400196304</v>
+        <v>854.4185483221381</v>
       </c>
       <c r="AC7" t="n">
-        <v>698.8013999897191</v>
+        <v>772.8740412542365</v>
       </c>
       <c r="AD7" t="n">
-        <v>564614.625771329</v>
+        <v>624463.5279459307</v>
       </c>
       <c r="AE7" t="n">
-        <v>772530.6400196303</v>
+        <v>854418.5483221381</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.503353714629089e-06</v>
+        <v>2.820881227935557e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.27488425925926</v>
       </c>
       <c r="AH7" t="n">
-        <v>698801.3999897192</v>
+        <v>772874.0412542366</v>
       </c>
     </row>
     <row r="8">
@@ -29076,28 +29076,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>548.411132530648</v>
+        <v>608.2600347052498</v>
       </c>
       <c r="AB8" t="n">
-        <v>750.3603057200603</v>
+        <v>832.2482140225682</v>
       </c>
       <c r="AC8" t="n">
-        <v>678.7469712794405</v>
+        <v>752.8196125439579</v>
       </c>
       <c r="AD8" t="n">
-        <v>548411.132530648</v>
+        <v>608260.0347052498</v>
       </c>
       <c r="AE8" t="n">
-        <v>750360.3057200602</v>
+        <v>832248.2140225682</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.521449045876754e-06</v>
+        <v>2.854835166874278e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.15046296296296</v>
       </c>
       <c r="AH8" t="n">
-        <v>678746.9712794404</v>
+        <v>752819.6125439579</v>
       </c>
     </row>
     <row r="9">
@@ -29182,28 +29182,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>529.5236210718065</v>
+        <v>589.3725232464084</v>
       </c>
       <c r="AB9" t="n">
-        <v>724.5175792838763</v>
+        <v>806.405487586384</v>
       </c>
       <c r="AC9" t="n">
-        <v>655.3706383838315</v>
+        <v>729.4432796483491</v>
       </c>
       <c r="AD9" t="n">
-        <v>529523.6210718065</v>
+        <v>589372.5232464083</v>
       </c>
       <c r="AE9" t="n">
-        <v>724517.5792838763</v>
+        <v>806405.4875863839</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.538903834425388e-06</v>
+        <v>2.887587196470037e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.03761574074074</v>
       </c>
       <c r="AH9" t="n">
-        <v>655370.6383838315</v>
+        <v>729443.279648349</v>
       </c>
     </row>
     <row r="10">
@@ -29288,28 +29288,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>502.7222304892398</v>
+        <v>574.4725330048434</v>
       </c>
       <c r="AB10" t="n">
-        <v>687.8467342949053</v>
+        <v>786.0186635966983</v>
       </c>
       <c r="AC10" t="n">
-        <v>622.1996073727537</v>
+        <v>711.0021455271518</v>
       </c>
       <c r="AD10" t="n">
-        <v>502722.2304892399</v>
+        <v>574472.5330048434</v>
       </c>
       <c r="AE10" t="n">
-        <v>687846.7342949053</v>
+        <v>786018.6635966983</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.550647117240982e-06</v>
+        <v>2.909622201091036e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>10</v>
+        <v>9.959490740740742</v>
       </c>
       <c r="AH10" t="n">
-        <v>622199.6073727537</v>
+        <v>711002.1455271518</v>
       </c>
     </row>
     <row r="11">
@@ -29394,28 +29394,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>497.5282852039115</v>
+        <v>569.2785877195149</v>
       </c>
       <c r="AB11" t="n">
-        <v>680.7401492148249</v>
+        <v>778.9120785166181</v>
       </c>
       <c r="AC11" t="n">
-        <v>615.7712647985613</v>
+        <v>704.5738029529595</v>
       </c>
       <c r="AD11" t="n">
-        <v>497528.2852039115</v>
+        <v>569278.587719515</v>
       </c>
       <c r="AE11" t="n">
-        <v>680740.1492148249</v>
+        <v>778912.0785166181</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.55454375199343e-06</v>
+        <v>2.916933816260731e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>10</v>
+        <v>9.936342592592593</v>
       </c>
       <c r="AH11" t="n">
-        <v>615771.2647985613</v>
+        <v>704573.8029529594</v>
       </c>
     </row>
     <row r="12">
@@ -29500,28 +29500,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>498.8404040663374</v>
+        <v>570.5907065819409</v>
       </c>
       <c r="AB12" t="n">
-        <v>682.5354481289947</v>
+        <v>780.707377430788</v>
       </c>
       <c r="AC12" t="n">
-        <v>617.3952229040808</v>
+        <v>706.1977610584788</v>
       </c>
       <c r="AD12" t="n">
-        <v>498840.4040663374</v>
+        <v>570590.706581941</v>
       </c>
       <c r="AE12" t="n">
-        <v>682535.4481289948</v>
+        <v>780707.377430788</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.554970780459451e-06</v>
+        <v>2.91773508915604e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>10</v>
+        <v>9.933449074074074</v>
       </c>
       <c r="AH12" t="n">
-        <v>617395.2229040808</v>
+        <v>706197.7610584788</v>
       </c>
     </row>
   </sheetData>
@@ -29797,28 +29797,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>284.9629425697706</v>
+        <v>339.924100349171</v>
       </c>
       <c r="AB2" t="n">
-        <v>389.8988697017228</v>
+        <v>465.0991504906518</v>
       </c>
       <c r="AC2" t="n">
-        <v>352.6874688038902</v>
+        <v>420.7107403385808</v>
       </c>
       <c r="AD2" t="n">
-        <v>284962.9425697706</v>
+        <v>339924.100349171</v>
       </c>
       <c r="AE2" t="n">
-        <v>389898.8697017229</v>
+        <v>465099.1504906518</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.685626560859524e-06</v>
+        <v>4.215624107299403e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.77372685185185</v>
       </c>
       <c r="AH2" t="n">
-        <v>352687.4688038902</v>
+        <v>420710.7403385807</v>
       </c>
     </row>
   </sheetData>
@@ -30094,28 +30094,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>613.2820605631264</v>
+        <v>688.8943485289551</v>
       </c>
       <c r="AB2" t="n">
-        <v>839.1195713574591</v>
+        <v>942.5756395310235</v>
       </c>
       <c r="AC2" t="n">
-        <v>759.0351771788174</v>
+        <v>852.6175434074006</v>
       </c>
       <c r="AD2" t="n">
-        <v>613282.0605631263</v>
+        <v>688894.3485289551</v>
       </c>
       <c r="AE2" t="n">
-        <v>839119.5713574591</v>
+        <v>942575.6395310236</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.344714609373227e-06</v>
+        <v>2.769148550973463e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.65046296296296</v>
       </c>
       <c r="AH2" t="n">
-        <v>759035.1771788175</v>
+        <v>852617.5434074006</v>
       </c>
     </row>
     <row r="3">
@@ -30200,28 +30200,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>458.4286133710322</v>
+        <v>523.2269543625182</v>
       </c>
       <c r="AB3" t="n">
-        <v>627.2422532572997</v>
+        <v>715.9022021028982</v>
       </c>
       <c r="AC3" t="n">
-        <v>567.3791329464536</v>
+        <v>647.5775007092481</v>
       </c>
       <c r="AD3" t="n">
-        <v>458428.6133710322</v>
+        <v>523226.9543625182</v>
       </c>
       <c r="AE3" t="n">
-        <v>627242.2532572997</v>
+        <v>715902.2021028982</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.588272912539848e-06</v>
+        <v>3.270704135772058e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.70891203703704</v>
       </c>
       <c r="AH3" t="n">
-        <v>567379.1329464536</v>
+        <v>647577.500709248</v>
       </c>
     </row>
     <row r="4">
@@ -30306,28 +30306,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>409.9929947738024</v>
+        <v>463.9774782994963</v>
       </c>
       <c r="AB4" t="n">
-        <v>560.970503063887</v>
+        <v>634.8344550510677</v>
       </c>
       <c r="AC4" t="n">
-        <v>507.4322655785148</v>
+        <v>574.2467456567468</v>
       </c>
       <c r="AD4" t="n">
-        <v>409992.9947738023</v>
+        <v>463977.4782994963</v>
       </c>
       <c r="AE4" t="n">
-        <v>560970.503063887</v>
+        <v>634834.4550510678</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.67604325930011e-06</v>
+        <v>3.451448158968849e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.15046296296296</v>
       </c>
       <c r="AH4" t="n">
-        <v>507432.2655785148</v>
+        <v>574246.7456567468</v>
       </c>
     </row>
     <row r="5">
@@ -30412,28 +30412,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>399.4967794940575</v>
+        <v>453.4812630197516</v>
       </c>
       <c r="AB5" t="n">
-        <v>546.6091182578033</v>
+        <v>620.473070244984</v>
       </c>
       <c r="AC5" t="n">
-        <v>494.4415111819934</v>
+        <v>561.2559912602255</v>
       </c>
       <c r="AD5" t="n">
-        <v>399496.7794940575</v>
+        <v>453481.2630197516</v>
       </c>
       <c r="AE5" t="n">
-        <v>546609.1182578033</v>
+        <v>620473.070244984</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.692856601010381e-06</v>
+        <v>3.486071595428515e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.04918981481481</v>
       </c>
       <c r="AH5" t="n">
-        <v>494441.5111819934</v>
+        <v>561255.9912602255</v>
       </c>
     </row>
   </sheetData>
@@ -30709,28 +30709,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>792.7533727148186</v>
+        <v>882.6731496358638</v>
       </c>
       <c r="AB2" t="n">
-        <v>1084.680138358892</v>
+        <v>1207.712344122848</v>
       </c>
       <c r="AC2" t="n">
-        <v>981.1597883120542</v>
+        <v>1092.449973034684</v>
       </c>
       <c r="AD2" t="n">
-        <v>792753.3727148186</v>
+        <v>882673.1496358637</v>
       </c>
       <c r="AE2" t="n">
-        <v>1084680.138358892</v>
+        <v>1207712.344122848</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.176321013502069e-06</v>
+        <v>2.330508502306571e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.92361111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>981159.7883120541</v>
+        <v>1092449.973034684</v>
       </c>
     </row>
     <row r="3">
@@ -30815,28 +30815,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>568.7950838788713</v>
+        <v>636.1923356509204</v>
       </c>
       <c r="AB3" t="n">
-        <v>778.2505272311652</v>
+        <v>870.4664204625818</v>
       </c>
       <c r="AC3" t="n">
-        <v>703.9753891936971</v>
+        <v>787.3903270009265</v>
       </c>
       <c r="AD3" t="n">
-        <v>568795.0838788713</v>
+        <v>636192.3356509204</v>
       </c>
       <c r="AE3" t="n">
-        <v>778250.5272311652</v>
+        <v>870466.4204625818</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.455586176405365e-06</v>
+        <v>2.883784206025025e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.25289351851852</v>
       </c>
       <c r="AH3" t="n">
-        <v>703975.3891936971</v>
+        <v>787390.3270009265</v>
       </c>
     </row>
     <row r="4">
@@ -30921,28 +30921,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>499.1700581362388</v>
+        <v>555.5619356346781</v>
       </c>
       <c r="AB4" t="n">
-        <v>682.9864953707452</v>
+        <v>760.1443499981625</v>
       </c>
       <c r="AC4" t="n">
-        <v>617.8032228301271</v>
+        <v>687.5972401036329</v>
       </c>
       <c r="AD4" t="n">
-        <v>499170.0581362388</v>
+        <v>555561.9356346781</v>
       </c>
       <c r="AE4" t="n">
-        <v>682986.4953707452</v>
+        <v>760144.3499981625</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.555768450085713e-06</v>
+        <v>3.082263734922809e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.52662037037037</v>
       </c>
       <c r="AH4" t="n">
-        <v>617803.2228301271</v>
+        <v>687597.2401036329</v>
       </c>
     </row>
     <row r="5">
@@ -31027,28 +31027,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>465.1925284121181</v>
+        <v>521.4138137099652</v>
       </c>
       <c r="AB5" t="n">
-        <v>636.4969402193848</v>
+        <v>713.421383071955</v>
       </c>
       <c r="AC5" t="n">
-        <v>575.7505655739121</v>
+        <v>645.3334475647669</v>
       </c>
       <c r="AD5" t="n">
-        <v>465192.5284121181</v>
+        <v>521413.8137099653</v>
       </c>
       <c r="AE5" t="n">
-        <v>636496.9402193847</v>
+        <v>713421.3830719551</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.609255596203186e-06</v>
+        <v>3.188231618995354e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.17650462962963</v>
       </c>
       <c r="AH5" t="n">
-        <v>575750.5655739121</v>
+        <v>645333.4475647669</v>
       </c>
     </row>
     <row r="6">
@@ -31133,28 +31133,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>429.4599471997273</v>
+        <v>496.8571094632254</v>
       </c>
       <c r="AB6" t="n">
-        <v>587.6060461943659</v>
+        <v>679.8218169562342</v>
       </c>
       <c r="AC6" t="n">
-        <v>531.5257498558403</v>
+        <v>614.9405768818432</v>
       </c>
       <c r="AD6" t="n">
-        <v>429459.9471997273</v>
+        <v>496857.1094632254</v>
       </c>
       <c r="AE6" t="n">
-        <v>587606.0461943659</v>
+        <v>679821.8169562342</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.639083877688804e-06</v>
+        <v>3.247326936356446e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.991319444444445</v>
       </c>
       <c r="AH6" t="n">
-        <v>531525.7498558403</v>
+        <v>614940.5768818432</v>
       </c>
     </row>
     <row r="7">
@@ -31239,28 +31239,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>428.3470358474523</v>
+        <v>495.7441981109504</v>
       </c>
       <c r="AB7" t="n">
-        <v>586.0833117839996</v>
+        <v>678.2990825458681</v>
       </c>
       <c r="AC7" t="n">
-        <v>530.1483430804283</v>
+        <v>613.5631701064312</v>
       </c>
       <c r="AD7" t="n">
-        <v>428347.0358474524</v>
+        <v>495744.1981109504</v>
       </c>
       <c r="AE7" t="n">
-        <v>586083.3117839997</v>
+        <v>678299.0825458681</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.642819487893834e-06</v>
+        <v>3.254727867942464e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.968171296296298</v>
       </c>
       <c r="AH7" t="n">
-        <v>530148.3430804283</v>
+        <v>613563.1701064312</v>
       </c>
     </row>
   </sheetData>
